--- a/simfin/federal/historical_accounts.xlsx
+++ b/simfin/federal/historical_accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/federal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC74F5-088B-DE4C-B9A1-9DABE66074BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CED9C4-41C4-0B49-A4A1-B1C77A1AA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>account</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>other_transfers</t>
+  </si>
+  <si>
+    <t>additional_accounts</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,52 +514,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4798</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5539</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7160</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>8028</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8355</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>8552</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7815</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7391</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7833</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9286</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9521</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10030</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11081</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>8607</v>
-      </c>
-      <c r="S2" s="1">
-        <v>8951</v>
+        <v>11732</v>
+      </c>
+      <c r="R2">
+        <v>13124</v>
+      </c>
+      <c r="S2">
+        <v>13252</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -570,52 +573,52 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4787</v>
+        <v>3185</v>
       </c>
       <c r="E3">
-        <v>4779</v>
+        <v>3649</v>
       </c>
       <c r="F3">
-        <v>4819</v>
+        <v>3925</v>
       </c>
       <c r="G3">
-        <v>4176</v>
+        <v>3740</v>
       </c>
       <c r="H3">
-        <v>3878</v>
+        <v>4148</v>
       </c>
       <c r="I3">
-        <v>3926</v>
+        <v>4309</v>
       </c>
       <c r="J3">
-        <v>4212</v>
+        <v>4511</v>
       </c>
       <c r="K3">
-        <v>4281</v>
+        <v>4792</v>
       </c>
       <c r="L3">
-        <v>3611</v>
+        <v>5290</v>
       </c>
       <c r="M3">
-        <v>3957</v>
+        <v>5282</v>
       </c>
       <c r="N3">
-        <v>5040</v>
+        <v>5487</v>
       </c>
       <c r="O3">
-        <v>5574</v>
+        <v>5946</v>
       </c>
       <c r="P3">
-        <v>6358</v>
+        <v>6096</v>
       </c>
       <c r="Q3">
-        <v>7457</v>
-      </c>
-      <c r="R3" s="1">
-        <v>6605</v>
-      </c>
-      <c r="S3" s="1">
-        <v>6702</v>
+        <v>6306</v>
+      </c>
+      <c r="R3">
+        <v>6617</v>
+      </c>
+      <c r="S3">
+        <v>6800</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -629,52 +632,111 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1209</v>
+        <v>3139</v>
       </c>
       <c r="E4">
-        <v>1391</v>
+        <v>2782</v>
       </c>
       <c r="F4">
-        <v>1440</v>
+        <v>3648</v>
       </c>
       <c r="G4">
-        <v>1630</v>
+        <v>3313</v>
       </c>
       <c r="H4">
-        <v>1617</v>
+        <v>4607</v>
       </c>
       <c r="I4">
-        <v>1847</v>
+        <v>4632</v>
       </c>
       <c r="J4">
-        <v>1747</v>
+        <v>4612</v>
       </c>
       <c r="K4">
-        <v>1753</v>
+        <v>5334</v>
       </c>
       <c r="L4">
-        <v>2014</v>
+        <v>5427</v>
       </c>
       <c r="M4">
-        <v>1880</v>
+        <v>3971</v>
       </c>
       <c r="N4">
-        <v>1976</v>
+        <v>3893</v>
       </c>
       <c r="O4">
-        <v>1906</v>
+        <v>4203</v>
       </c>
       <c r="P4">
-        <v>1784</v>
+        <v>5308</v>
       </c>
       <c r="Q4">
-        <v>1726</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2249</v>
+        <v>5082</v>
+      </c>
+      <c r="R4">
+        <v>5487</v>
+      </c>
+      <c r="S4">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4039</v>
       </c>
     </row>
   </sheetData>

--- a/simfin/federal/historical_accounts.xlsx
+++ b/simfin/federal/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin/simfin/federal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/simfin-dev/simfin/federal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CED9C4-41C4-0B49-A4A1-B1C77A1AA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF7349-3B33-C849-B619-81E26FA2FF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2760" windowWidth="29820" windowHeight="26040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B242BC4B-2D26-AF4D-B236-048F88AC2E72}</author>
+  </authors>
+  <commentList>
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{B242BC4B-2D26-AF4D-B236-048F88AC2E72}">
+      <text>
+        <t>[Commentaire lié à un fil de discussion]
+Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    1 100 = versement ponctuel en 2021-2022 d’une somme de 1,1 milliard de dollars
+pour appuyer le système de santé et la vaccination
+660 = conclusion d’une entente asymétrique sans condition sur les services de garde
+de 6,0 milliards de dollars sur cinq ans, dont 660 millions de dollars
+en 2021-2022</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,13 +110,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,9 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +166,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Julien Navaux" id="{D896FE9E-7D50-3846-9DBA-8543B66E2D95}" userId="S::julien.navaux@hec.ca::f7099683-1015-48c0-aabc-c7c3ede13297" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,13 +469,25 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="T5" dT="2022-05-27T20:32:49.88" personId="{D896FE9E-7D50-3846-9DBA-8543B66E2D95}" id="{B242BC4B-2D26-AF4D-B236-048F88AC2E72}">
+    <text>1 100 = versement ponctuel en 2021-2022 d’une somme de 1,1 milliard de dollars
+pour appuyer le système de santé et la vaccination
+660 = conclusion d’une entente asymétrique sans condition sur les services de garde
+de 6,0 milliards de dollars sur cinq ans, dont 660 millions de dollars
+en 2021-2022</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +497,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +555,23 @@
       <c r="S1">
         <v>2021</v>
       </c>
+      <c r="T1">
+        <v>2022</v>
+      </c>
+      <c r="U1">
+        <v>2023</v>
+      </c>
+      <c r="V1">
+        <v>2024</v>
+      </c>
+      <c r="W1">
+        <v>2025</v>
+      </c>
+      <c r="X1">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -562,7 +630,7 @@
         <v>13252</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -621,7 +689,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -676,71 +744,44 @@
       <c r="R4">
         <v>5487</v>
       </c>
-      <c r="S4">
-        <v>6625</v>
+      <c r="S4" s="2">
+        <v>6164</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
-        <v>4039</v>
+        <v>4500</v>
+      </c>
+      <c r="T5" s="2">
+        <f>1100+660</f>
+        <v>1760</v>
+      </c>
+      <c r="U5" s="2">
+        <f>(6000-660)/4</f>
+        <v>1335</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5:X5" si="0">(6000-660)/4</f>
+        <v>1335</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>1335</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="0"/>
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
